--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +531,545 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.639895136048097</v>
+        <v>0.2595953333333333</v>
       </c>
       <c r="H2">
-        <v>0.639895136048097</v>
+        <v>0.778786</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1865650170889249</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1865650170889249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.52033012888806</v>
+        <v>0.1495096666666667</v>
       </c>
       <c r="N2">
-        <v>3.52033012888806</v>
+        <v>0.448529</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03509823662522813</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03509823662522813</v>
       </c>
       <c r="Q2">
-        <v>2.25264212675904</v>
+        <v>0.03881201175488889</v>
       </c>
       <c r="R2">
-        <v>2.25264212675904</v>
+        <v>0.349308105794</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.006548103115776817</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.006548103115776817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.2595953333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.778786</v>
+      </c>
+      <c r="I3">
+        <v>0.1865650170889249</v>
+      </c>
+      <c r="J3">
+        <v>0.1865650170889249</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.01709066666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.051272</v>
+      </c>
+      <c r="O3">
+        <v>0.004012130293133101</v>
+      </c>
+      <c r="P3">
+        <v>0.0040121302931331</v>
+      </c>
+      <c r="Q3">
+        <v>0.004436657310222222</v>
+      </c>
+      <c r="R3">
+        <v>0.039929915792</v>
+      </c>
+      <c r="S3">
+        <v>0.0007485231567013704</v>
+      </c>
+      <c r="T3">
+        <v>0.0007485231567013703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2595953333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.778786</v>
+      </c>
+      <c r="I4">
+        <v>0.1865650170889249</v>
+      </c>
+      <c r="J4">
+        <v>0.1865650170889249</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4.093148333333333</v>
+      </c>
+      <c r="N4">
+        <v>12.279445</v>
+      </c>
+      <c r="O4">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="P4">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="Q4">
+        <v>1.062562205974444</v>
+      </c>
+      <c r="R4">
+        <v>9.56305985377</v>
+      </c>
+      <c r="S4">
+        <v>0.1792683908164467</v>
+      </c>
+      <c r="T4">
+        <v>0.1792683908164467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4485536666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.345661</v>
+      </c>
+      <c r="I5">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="J5">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1495096666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.448529</v>
+      </c>
+      <c r="O5">
+        <v>0.03509823662522813</v>
+      </c>
+      <c r="P5">
+        <v>0.03509823662522813</v>
+      </c>
+      <c r="Q5">
+        <v>0.06706310918544445</v>
+      </c>
+      <c r="R5">
+        <v>0.603567982669</v>
+      </c>
+      <c r="S5">
+        <v>0.01131443937985448</v>
+      </c>
+      <c r="T5">
+        <v>0.01131443937985448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4485536666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.345661</v>
+      </c>
+      <c r="I6">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="J6">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01709066666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.051272</v>
+      </c>
+      <c r="O6">
+        <v>0.004012130293133101</v>
+      </c>
+      <c r="P6">
+        <v>0.0040121302931331</v>
+      </c>
+      <c r="Q6">
+        <v>0.007666081199111111</v>
+      </c>
+      <c r="R6">
+        <v>0.068994730792</v>
+      </c>
+      <c r="S6">
+        <v>0.001293369962441444</v>
+      </c>
+      <c r="T6">
+        <v>0.001293369962441444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4485536666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.345661</v>
+      </c>
+      <c r="I7">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="J7">
+        <v>0.322364895440981</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.093148333333333</v>
+      </c>
+      <c r="N7">
+        <v>12.279445</v>
+      </c>
+      <c r="O7">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="P7">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="Q7">
+        <v>1.835996693127222</v>
+      </c>
+      <c r="R7">
+        <v>16.523970238145</v>
+      </c>
+      <c r="S7">
+        <v>0.309757086098685</v>
+      </c>
+      <c r="T7">
+        <v>0.309757086098685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6832980000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.049894</v>
+      </c>
+      <c r="I8">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="J8">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1495096666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.448529</v>
+      </c>
+      <c r="O8">
+        <v>0.03509823662522813</v>
+      </c>
+      <c r="P8">
+        <v>0.03509823662522813</v>
+      </c>
+      <c r="Q8">
+        <v>0.102159656214</v>
+      </c>
+      <c r="R8">
+        <v>0.919436905926</v>
+      </c>
+      <c r="S8">
+        <v>0.01723569412959684</v>
+      </c>
+      <c r="T8">
+        <v>0.01723569412959684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6832980000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.049894</v>
+      </c>
+      <c r="I9">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="J9">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01709066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.051272</v>
+      </c>
+      <c r="O9">
+        <v>0.004012130293133101</v>
+      </c>
+      <c r="P9">
+        <v>0.0040121302931331</v>
+      </c>
+      <c r="Q9">
+        <v>0.011678018352</v>
+      </c>
+      <c r="R9">
+        <v>0.105102165168</v>
+      </c>
+      <c r="S9">
+        <v>0.001970237173990286</v>
+      </c>
+      <c r="T9">
+        <v>0.001970237173990286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6832980000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.049894</v>
+      </c>
+      <c r="I10">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="J10">
+        <v>0.4910700874700941</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.093148333333333</v>
+      </c>
+      <c r="N10">
+        <v>12.279445</v>
+      </c>
+      <c r="O10">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="P10">
+        <v>0.9608896330816388</v>
+      </c>
+      <c r="Q10">
+        <v>2.79684006987</v>
+      </c>
+      <c r="R10">
+        <v>25.17156062883</v>
+      </c>
+      <c r="S10">
+        <v>0.471864156166507</v>
+      </c>
+      <c r="T10">
+        <v>0.471864156166507</v>
       </c>
     </row>
   </sheetData>
